--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad Badzohreh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THE\Desktop\tensorized_swin_transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD82EB02-57AB-4093-A5B3-C0B58C39D710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8701CC-A8EE-4E51-9545-7E2645BC4194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{3A79C39A-2D7E-4EAC-8C46-CDABECCAA72F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A79C39A-2D7E-4EAC-8C46-CDABECCAA72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed_Model_Evaluation" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Test Case</t>
   </si>
@@ -133,10 +133,10 @@
     <t>cifar100</t>
   </si>
   <si>
-    <t>ciar100</t>
-  </si>
-  <si>
     <t>tiny swin transformer</t>
+  </si>
+  <si>
+    <t>swin patch embedding</t>
   </si>
 </sst>
 </file>
@@ -1001,18 +1001,18 @@
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>90</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>86</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>105</v>
       </c>
@@ -1666,18 +1666,57 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>186</v>
       </c>
       <c r="B17">
         <v>27527044</v>
       </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>30.5</v>
+      </c>
+      <c r="J17">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="K17">
+        <v>50.3</v>
+      </c>
+      <c r="L17">
+        <v>9.9</v>
+      </c>
+      <c r="M17">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N17">
+        <v>29.9</v>
+      </c>
+      <c r="O17">
+        <v>39.9</v>
+      </c>
+      <c r="P17">
+        <v>50</v>
+      </c>
       <c r="R17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" t="s">
         <v>37</v>
-      </c>
-      <c r="S17" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THE\Desktop\tensorized_swin_transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8701CC-A8EE-4E51-9545-7E2645BC4194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF1DCA3-AEF7-456F-B636-2F22F9DB3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A79C39A-2D7E-4EAC-8C46-CDABECCAA72F}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
   <si>
     <t>Test Case</t>
   </si>
@@ -137,6 +137,33 @@
   </si>
   <si>
     <t>swin patch embedding</t>
+  </si>
+  <si>
+    <t>swin transformer embedding</t>
+  </si>
+  <si>
+    <t>adamW</t>
+  </si>
+  <si>
+    <t>tiny swin transformer fine tune</t>
+  </si>
+  <si>
+    <t>swin embedding</t>
+  </si>
+  <si>
+    <t>lr=5e-4</t>
+  </si>
+  <si>
+    <t>scaduler</t>
+  </si>
+  <si>
+    <t>lr = 0.001</t>
+  </si>
+  <si>
+    <t>weight decay  = 0.05</t>
+  </si>
+  <si>
+    <t>195-copy</t>
   </si>
 </sst>
 </file>
@@ -620,9 +647,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -998,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261303B7-7059-4A1A-AA91-28DCD05192AD}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1555,7 @@
         <v>16</v>
       </c>
       <c r="G13">
-        <v>91.3</v>
+        <v>97.3</v>
       </c>
       <c r="H13">
         <v>99.3</v>
@@ -1666,7 +1694,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>106</v>
+      </c>
+      <c r="B16">
+        <v>170056</v>
+      </c>
+      <c r="C16">
+        <v>400</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>186</v>
       </c>
@@ -1682,6 +1733,9 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
+      <c r="F17">
+        <v>64</v>
+      </c>
       <c r="G17">
         <v>10</v>
       </c>
@@ -1717,6 +1771,262 @@
       </c>
       <c r="S17" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>187</v>
+      </c>
+      <c r="B18">
+        <v>27559178</v>
+      </c>
+      <c r="C18">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18">
+        <v>64</v>
+      </c>
+      <c r="G18">
+        <v>95.8</v>
+      </c>
+      <c r="H18">
+        <v>98.8</v>
+      </c>
+      <c r="I18">
+        <v>99.5</v>
+      </c>
+      <c r="J18">
+        <v>99.8</v>
+      </c>
+      <c r="K18">
+        <v>99.9</v>
+      </c>
+      <c r="L18">
+        <v>97</v>
+      </c>
+      <c r="M18">
+        <v>99.2</v>
+      </c>
+      <c r="N18">
+        <v>99.7</v>
+      </c>
+      <c r="O18">
+        <v>99.9</v>
+      </c>
+      <c r="P18">
+        <v>99.9</v>
+      </c>
+      <c r="R18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>188</v>
+      </c>
+      <c r="B21">
+        <v>27527044</v>
+      </c>
+      <c r="C21">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>128</v>
+      </c>
+      <c r="G21">
+        <v>33.9</v>
+      </c>
+      <c r="H21">
+        <v>55.7</v>
+      </c>
+      <c r="I21">
+        <v>69.3</v>
+      </c>
+      <c r="J21">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="K21">
+        <v>85.6</v>
+      </c>
+      <c r="L21">
+        <v>32.9</v>
+      </c>
+      <c r="M21">
+        <v>52.8</v>
+      </c>
+      <c r="N21">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="O21">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="P21">
+        <v>85</v>
+      </c>
+      <c r="R21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>189</v>
+      </c>
+      <c r="B22">
+        <v>27527044</v>
+      </c>
+      <c r="C22">
+        <v>400</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <v>128</v>
+      </c>
+      <c r="G22">
+        <v>9.92</v>
+      </c>
+      <c r="H22">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="I22">
+        <v>29.85</v>
+      </c>
+      <c r="J22">
+        <v>39.74</v>
+      </c>
+      <c r="K22">
+        <v>49.65</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>30</v>
+      </c>
+      <c r="O22">
+        <v>40</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="R22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" t="s">
+        <v>45</v>
+      </c>
+      <c r="T22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>195</v>
+      </c>
+      <c r="B26" s="2">
+        <v>27596254</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>128</v>
+      </c>
+      <c r="G26">
+        <v>97.13</v>
+      </c>
+      <c r="H26">
+        <v>98.53</v>
+      </c>
+      <c r="I26">
+        <v>99.02</v>
+      </c>
+      <c r="J26">
+        <v>99.25</v>
+      </c>
+      <c r="K26">
+        <v>99.43</v>
+      </c>
+      <c r="L26">
+        <v>45.64</v>
+      </c>
+      <c r="M26">
+        <v>57.85</v>
+      </c>
+      <c r="N26">
+        <v>64.67</v>
+      </c>
+      <c r="O26">
+        <v>68.94</v>
+      </c>
+      <c r="P26">
+        <v>99.43</v>
+      </c>
+      <c r="R26" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>27596254</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T27" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THE\Desktop\tensorized_swin_transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF1DCA3-AEF7-456F-B636-2F22F9DB3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C20129-238A-4FB0-8EDA-98524742ACCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A79C39A-2D7E-4EAC-8C46-CDABECCAA72F}"/>
   </bookViews>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,6 +1713,21 @@
       <c r="F16">
         <v>16</v>
       </c>
+      <c r="G16">
+        <v>83.87</v>
+      </c>
+      <c r="H16">
+        <v>94.16</v>
+      </c>
+      <c r="I16">
+        <v>97.36</v>
+      </c>
+      <c r="J16">
+        <v>98.66</v>
+      </c>
+      <c r="K16">
+        <v>99.33</v>
+      </c>
       <c r="R16" t="s">
         <v>36</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THE\Desktop\tensorized_swin_transformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C20129-238A-4FB0-8EDA-98524742ACCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179B2FEF-6014-4D3E-96B6-750D0C4C2572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A79C39A-2D7E-4EAC-8C46-CDABECCAA72F}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed_Model_Evaluation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>Test Case</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>195-copy</t>
+  </si>
+  <si>
+    <t>tiny swin trnasformer</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261303B7-7059-4A1A-AA91-28DCD05192AD}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,6 +1041,7 @@
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1646,7 +1650,7 @@
         <v>105</v>
       </c>
       <c r="B15">
-        <v>170056</v>
+        <v>1700556</v>
       </c>
       <c r="C15">
         <v>60</v>
@@ -1699,7 +1703,7 @@
         <v>106</v>
       </c>
       <c r="B16">
-        <v>170056</v>
+        <v>1700556</v>
       </c>
       <c r="C16">
         <v>400</v>
@@ -1714,19 +1718,34 @@
         <v>16</v>
       </c>
       <c r="G16">
-        <v>83.87</v>
+        <v>82.12</v>
       </c>
       <c r="H16">
-        <v>94.16</v>
+        <v>93.28</v>
       </c>
       <c r="I16">
-        <v>97.36</v>
+        <v>96.8</v>
       </c>
       <c r="J16">
-        <v>98.66</v>
+        <v>98.43</v>
       </c>
       <c r="K16">
-        <v>99.33</v>
+        <v>99.2</v>
+      </c>
+      <c r="L16">
+        <v>83.08</v>
+      </c>
+      <c r="M16">
+        <v>93.58</v>
+      </c>
+      <c r="N16">
+        <v>96.89</v>
+      </c>
+      <c r="O16">
+        <v>98.46</v>
+      </c>
+      <c r="P16">
+        <v>99.19</v>
       </c>
       <c r="R16" t="s">
         <v>36</v>
@@ -2042,6 +2061,91 @@
       </c>
       <c r="T27" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>300</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29">
+        <v>78.52</v>
+      </c>
+      <c r="H29">
+        <v>86.99</v>
+      </c>
+      <c r="I29">
+        <v>89.57</v>
+      </c>
+      <c r="J29">
+        <v>90.96</v>
+      </c>
+      <c r="K29">
+        <v>91.89</v>
+      </c>
+      <c r="L29">
+        <v>69.3</v>
+      </c>
+      <c r="M29">
+        <v>79.489999999999995</v>
+      </c>
+      <c r="N29">
+        <v>84.13</v>
+      </c>
+      <c r="O29">
+        <v>86.54</v>
+      </c>
+      <c r="P29">
+        <v>88.14</v>
+      </c>
+      <c r="R29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41">
+        <v>97.48</v>
+      </c>
+      <c r="H41">
+        <v>99.58</v>
+      </c>
+      <c r="I41">
+        <v>99.85</v>
+      </c>
+      <c r="J41">
+        <v>99.94</v>
+      </c>
+      <c r="K41">
+        <v>99.97</v>
+      </c>
+      <c r="L41">
+        <v>80.92</v>
+      </c>
+      <c r="M41">
+        <v>90.71</v>
+      </c>
+      <c r="N41">
+        <v>93.78</v>
+      </c>
+      <c r="O41">
+        <v>95.37</v>
+      </c>
+      <c r="P41">
+        <v>96.45</v>
+      </c>
+      <c r="R41" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
